--- a/02_MasterWifoMannheim/03_Courses/Course79.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course79.xlsx
@@ -1,37 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2B59D2BFD3D05905DB9B3611597930766A75F8F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>FIN 620 Behavioral Finance</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>There is abundant evidence suggesting that the standard economic paradigm of rational investors does not adequately describe behavior in financial markets. reviews recent research on possible mispricing in financial markets due to the nature of psychological biases. investor behavior or market anomalies when rational models provide no sufficient explanations. Topics will include among others overconfidence, prospect theory, heuristic driven biases and frame dependence.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>Behavioral finance applies scientific research on human and social cognitive and emotional biases. decisions and how they affect market prices and returns. They will know how behavioral findings are integrated with neo-classical theory.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>and Insurance (FIN), Mathematical and Statistical Foundations (MSF)</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>FIN 5| FIN 6</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further information on registration:Portal” (more information about the registration process is available here)</t>
+  </si>
+  <si>
+    <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 1 3</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Written exam (60 min.)</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Martin Weber</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +151,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,217 +475,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FIN 620 Behavioral Finance</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>There is abundant evidence suggesting that the standard economic paradigm of rational investors does not adequately describe behavior in financial markets. reviews recent research on possible mispricing in financial markets due to the nature of psychological biases. investor behavior or market anomalies when rational models provide no sufficient explanations. Topics will include among others overconfidence, prospect theory, heuristic driven biases and frame dependence.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Behavioral finance applies scientific research on human and social cognitive and emotional biases. decisions and how they affect market prices and returns. They will know how behavioral findings are integrated with neo-classical theory.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>and Insurance (FIN), Mathematical and Statistical Foundations (MSF)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FIN 5| FIN 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Further information on registration:Portal” (more information about the registration process is available here)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 1 3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Written exam (60 min.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Martin Weber</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
